--- a/9семестр/КИС/Лист Microsoft Excel (2).xlsx
+++ b/9семестр/КИС/Лист Microsoft Excel (2).xlsx
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
